--- a/AAII_Financials/Quarterly/REEMF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/REEMF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
   <si>
     <t>REEMF</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,55 +665,59 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -741,8 +745,11 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -770,8 +777,11 @@
       <c r="K9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -799,8 +809,11 @@
       <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -812,8 +825,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -821,28 +835,31 @@
         <v>400</v>
       </c>
       <c r="E12" s="3">
+        <v>400</v>
+      </c>
+      <c r="F12" s="3">
         <v>500</v>
-      </c>
-      <c r="F12" s="3">
-        <v>400</v>
       </c>
       <c r="G12" s="3">
         <v>400</v>
       </c>
       <c r="H12" s="3">
+        <v>400</v>
+      </c>
+      <c r="I12" s="3">
         <v>300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -870,8 +887,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -899,8 +919,11 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -928,8 +951,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,8 +964,9 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -947,28 +974,31 @@
         <v>1200</v>
       </c>
       <c r="E17" s="3">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="F17" s="3">
         <v>1000</v>
       </c>
       <c r="G17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H17" s="3">
         <v>800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -976,28 +1006,31 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-1000</v>
+        <v>-1200</v>
       </c>
       <c r="F18" s="3">
         <v>-1000</v>
       </c>
       <c r="G18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="H18" s="3">
         <v>-800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,8 +1042,9 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1033,13 +1067,16 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1047,28 +1084,31 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>-1000</v>
+        <v>-1300</v>
       </c>
       <c r="F21" s="3">
         <v>-1000</v>
       </c>
       <c r="G21" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="H21" s="3">
         <v>-900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1096,37 +1136,43 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1300</v>
-      </c>
-      <c r="E23" s="3">
-        <v>-1000</v>
       </c>
       <c r="F23" s="3">
         <v>-1000</v>
       </c>
       <c r="G23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="H23" s="3">
         <v>-900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1154,8 +1200,11 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,66 +1232,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1300</v>
-      </c>
-      <c r="E26" s="3">
-        <v>-1000</v>
       </c>
       <c r="F26" s="3">
         <v>-1000</v>
       </c>
       <c r="G26" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="H26" s="3">
         <v>-900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1300</v>
-      </c>
-      <c r="E27" s="3">
-        <v>-1000</v>
       </c>
       <c r="F27" s="3">
         <v>-1000</v>
       </c>
       <c r="G27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="H27" s="3">
         <v>-900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1328,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1299,8 +1360,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1392,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,8 +1424,11 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1381,42 +1451,48 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1300</v>
-      </c>
-      <c r="E33" s="3">
-        <v>-1000</v>
       </c>
       <c r="F33" s="3">
         <v>-1000</v>
       </c>
       <c r="G33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="H33" s="3">
         <v>-900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,71 +1520,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1300</v>
-      </c>
-      <c r="E35" s="3">
-        <v>-1000</v>
       </c>
       <c r="F35" s="3">
         <v>-1000</v>
       </c>
       <c r="G35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="H35" s="3">
         <v>-900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1605,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,37 +1619,41 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>400</v>
+      </c>
+      <c r="E41" s="3">
         <v>1400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>5700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1591,8 +1681,11 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1620,8 +1713,11 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1649,8 +1745,11 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1658,57 +1757,63 @@
         <v>100</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
       </c>
       <c r="G45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H45" s="3">
         <v>100</v>
       </c>
       <c r="I45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J45" s="3">
         <v>0</v>
       </c>
       <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>600</v>
+      </c>
+      <c r="E46" s="3">
         <v>1500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>5700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1736,16 +1841,19 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E48" s="3">
         <v>600</v>
-      </c>
-      <c r="E48" s="3">
-        <v>700</v>
       </c>
       <c r="F48" s="3">
         <v>700</v>
@@ -1765,8 +1873,11 @@
       <c r="K48" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1794,8 +1905,11 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +1937,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,8 +1969,11 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1881,8 +2001,11 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,37 +2033,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E54" s="3">
         <v>2200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>6400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2081,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,19 +2095,20 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>300</v>
+      </c>
+      <c r="E57" s="3">
         <v>600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>400</v>
-      </c>
-      <c r="F57" s="3">
-        <v>100</v>
       </c>
       <c r="G57" s="3">
         <v>100</v>
@@ -1986,16 +2117,19 @@
         <v>100</v>
       </c>
       <c r="I57" s="3">
+        <v>100</v>
+      </c>
+      <c r="J57" s="3">
         <v>200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2023,48 +2157,54 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
-      </c>
-      <c r="E59" s="3">
-        <v>0</v>
-      </c>
-      <c r="F59" s="3">
-        <v>0</v>
-      </c>
-      <c r="G59" s="3">
-        <v>0</v>
-      </c>
-      <c r="H59" s="3">
-        <v>0</v>
-      </c>
-      <c r="I59" s="3">
-        <v>0</v>
-      </c>
-      <c r="J59" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>500</v>
+      </c>
+      <c r="E60" s="3">
         <v>600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>400</v>
-      </c>
-      <c r="F60" s="3">
-        <v>100</v>
       </c>
       <c r="G60" s="3">
         <v>100</v>
@@ -2073,16 +2213,19 @@
         <v>100</v>
       </c>
       <c r="I60" s="3">
+        <v>100</v>
+      </c>
+      <c r="J60" s="3">
         <v>200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2110,13 +2253,16 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="E62" s="3">
         <v>1100</v>
@@ -2125,10 +2271,10 @@
         <v>1100</v>
       </c>
       <c r="G62" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H62" s="3">
         <v>1000</v>
-      </c>
-      <c r="H62" s="3">
-        <v>700</v>
       </c>
       <c r="I62" s="3">
         <v>700</v>
@@ -2137,10 +2283,13 @@
         <v>700</v>
       </c>
       <c r="K62" s="3">
+        <v>700</v>
+      </c>
+      <c r="L62" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2317,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2349,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,37 +2381,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E66" s="3">
         <v>1700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1500</v>
-      </c>
-      <c r="F66" s="3">
-        <v>1200</v>
       </c>
       <c r="G66" s="3">
         <v>1200</v>
       </c>
       <c r="H66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I66" s="3">
         <v>800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2429,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2459,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2491,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2355,8 +2523,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,37 +2555,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-137400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-136100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-134900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-133800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-133400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-132200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-131500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-130900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-130600</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2619,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2651,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,37 +2683,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E76" s="3">
         <v>400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>4600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>5200</v>
       </c>
-      <c r="K76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,71 +2747,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1300</v>
-      </c>
-      <c r="E81" s="3">
-        <v>-1000</v>
       </c>
       <c r="F81" s="3">
         <v>-1000</v>
       </c>
       <c r="G81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="H81" s="3">
         <v>-900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,8 +2832,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2663,8 +2862,11 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +2894,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +2926,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +2958,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +2990,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,37 +3022,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,8 +3070,9 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2879,8 +3100,11 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3132,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,8 +3164,11 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -2966,8 +3196,11 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3212,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3242,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3274,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3306,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,25 +3338,28 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>4</v>
+      <c r="D100" s="3">
+        <v>0</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F100" s="3">
+      <c r="F100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>4</v>
+      <c r="H100" s="3">
+        <v>0</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>4</v>
@@ -3124,8 +3370,11 @@
       <c r="K100" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3153,22 +3402,25 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-800</v>
-      </c>
-      <c r="G102" s="3">
-        <v>-700</v>
       </c>
       <c r="H102" s="3">
         <v>-700</v>
@@ -3177,9 +3429,12 @@
         <v>-700</v>
       </c>
       <c r="J102" s="3">
+        <v>-700</v>
+      </c>
+      <c r="K102" s="3">
         <v>4600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/REEMF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/REEMF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
   <si>
     <t>REEMF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,59 +665,66 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -748,8 +755,14 @@
       <c r="L8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -780,8 +793,14 @@
       <c r="L9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,8 +831,14 @@
       <c r="L10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -826,40 +851,48 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>600</v>
+      </c>
+      <c r="E12" s="3">
+        <v>800</v>
+      </c>
+      <c r="F12" s="3">
         <v>400</v>
-      </c>
-      <c r="E12" s="3">
-        <v>400</v>
-      </c>
-      <c r="F12" s="3">
-        <v>500</v>
       </c>
       <c r="G12" s="3">
         <v>400</v>
       </c>
       <c r="H12" s="3">
+        <v>500</v>
+      </c>
+      <c r="I12" s="3">
         <v>400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
+        <v>400</v>
+      </c>
+      <c r="K12" s="3">
         <v>300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,31 +923,37 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -922,8 +961,14 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -954,8 +999,14 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -965,40 +1016,48 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F17" s="3">
         <v>1200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1006,31 +1065,37 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="H18" s="3">
         <v>-1000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-1000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1043,8 +1108,10 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1052,7 +1119,7 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1070,13 +1137,19 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1084,31 +1157,37 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="G21" s="3">
         <v>-1300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-1000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-1000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1139,40 +1218,52 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-1300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-1000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-1000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1203,8 +1294,14 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1235,72 +1332,90 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-1300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-1000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-1000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-1300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-1000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-1000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1331,8 +1446,14 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1363,8 +1484,14 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1395,8 +1522,14 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1427,8 +1560,14 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1436,7 +1575,7 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -1454,45 +1593,57 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-1300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-1000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-1000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1523,77 +1674,95 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-1300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-1000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-1000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1606,8 +1775,10 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1620,40 +1791,48 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>21500</v>
+      </c>
+      <c r="E41" s="3">
+        <v>22200</v>
+      </c>
+      <c r="F41" s="3">
         <v>400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>1400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>2000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>2700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>3500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>4200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>4900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>5700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1684,31 +1863,37 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
@@ -1716,8 +1901,14 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1748,72 +1939,90 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F45" s="3">
         <v>100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>100</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
       <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
         <v>100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>100</v>
       </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
       <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>23100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>25100</v>
+      </c>
+      <c r="F46" s="3">
         <v>600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>2100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>2800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>3600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>4300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>4900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>5700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1844,8 +2053,14 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1853,13 +2068,13 @@
         <v>1000</v>
       </c>
       <c r="E48" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F48" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G48" s="3">
         <v>600</v>
-      </c>
-      <c r="F48" s="3">
-        <v>700</v>
-      </c>
-      <c r="G48" s="3">
-        <v>700</v>
       </c>
       <c r="H48" s="3">
         <v>700</v>
@@ -1876,8 +2091,14 @@
       <c r="L48" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3">
+        <v>700</v>
+      </c>
+      <c r="N48" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1908,8 +2129,14 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1940,8 +2167,14 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1972,8 +2205,14 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2004,8 +2243,14 @@
       <c r="L52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2036,40 +2281,52 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>24100</v>
+      </c>
+      <c r="E54" s="3">
+        <v>26100</v>
+      </c>
+      <c r="F54" s="3">
         <v>1600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>2200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>2700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>3400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>4200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>4900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>5600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>6400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2082,8 +2339,10 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2096,8 +2355,10 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2105,31 +2366,37 @@
         <v>300</v>
       </c>
       <c r="E57" s="3">
+        <v>400</v>
+      </c>
+      <c r="F57" s="3">
+        <v>300</v>
+      </c>
+      <c r="G57" s="3">
         <v>600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>400</v>
-      </c>
-      <c r="G57" s="3">
-        <v>100</v>
-      </c>
-      <c r="H57" s="3">
-        <v>100</v>
       </c>
       <c r="I57" s="3">
         <v>100</v>
       </c>
       <c r="J57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K57" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="L57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3">
+        <v>500</v>
+      </c>
+      <c r="N57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2160,19 +2427,25 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
         <v>100</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>4</v>
+      <c r="E59" s="3">
+        <v>800</v>
+      </c>
+      <c r="F59" s="3">
+        <v>100</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>4</v>
@@ -2186,46 +2459,58 @@
       <c r="J59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
-      <c r="L59" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M59" s="3">
+        <v>0</v>
+      </c>
+      <c r="N59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F60" s="3">
         <v>500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>400</v>
-      </c>
-      <c r="G60" s="3">
-        <v>100</v>
-      </c>
-      <c r="H60" s="3">
-        <v>100</v>
       </c>
       <c r="I60" s="3">
         <v>100</v>
       </c>
       <c r="J60" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K60" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="L60" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3">
+        <v>500</v>
+      </c>
+      <c r="N60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2256,40 +2541,52 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E62" s="3">
         <v>1400</v>
       </c>
-      <c r="E62" s="3">
-        <v>1100</v>
-      </c>
       <c r="F62" s="3">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="G62" s="3">
         <v>1100</v>
       </c>
       <c r="H62" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I62" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J62" s="3">
         <v>1000</v>
-      </c>
-      <c r="I62" s="3">
-        <v>700</v>
-      </c>
-      <c r="J62" s="3">
-        <v>700</v>
       </c>
       <c r="K62" s="3">
         <v>700</v>
       </c>
       <c r="L62" s="3">
+        <v>700</v>
+      </c>
+      <c r="M62" s="3">
+        <v>700</v>
+      </c>
+      <c r="N62" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2320,8 +2617,14 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2352,8 +2655,14 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2384,40 +2693,52 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F66" s="3">
         <v>1800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2430,8 +2751,10 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2462,8 +2785,14 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2494,8 +2823,14 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2526,8 +2861,14 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2558,40 +2899,52 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-141400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-139200</v>
+      </c>
+      <c r="F72" s="3">
         <v>-137400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-136100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-134900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-133800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-133400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-132200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-131500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-130900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-130600</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2622,8 +2975,14 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2654,8 +3013,14 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2686,40 +3051,52 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>22200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>23400</v>
+      </c>
+      <c r="F76" s="3">
         <v>-300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>1200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>2200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>3000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>4100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>4600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>5200</v>
       </c>
-      <c r="L76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2750,77 +3127,95 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-1300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-1000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-1000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2833,8 +3228,10 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2865,8 +3262,14 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2897,8 +3300,14 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2929,8 +3338,14 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2961,8 +3376,14 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2993,8 +3414,14 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3025,22 +3452,28 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-1000</v>
+        <v>3500</v>
       </c>
       <c r="E89" s="3">
         <v>-600</v>
       </c>
       <c r="F89" s="3">
-        <v>-700</v>
+        <v>-1000</v>
       </c>
       <c r="G89" s="3">
-        <v>-800</v>
+        <v>-600</v>
       </c>
       <c r="H89" s="3">
         <v>-700</v>
@@ -3052,13 +3485,19 @@
         <v>-700</v>
       </c>
       <c r="K89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="L89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="M89" s="3">
         <v>-500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3071,8 +3510,10 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3103,8 +3544,14 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3135,8 +3582,14 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3167,8 +3620,14 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3199,8 +3658,14 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3213,8 +3678,10 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3245,8 +3712,14 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3277,8 +3750,14 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3309,8 +3788,14 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3341,31 +3826,37 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>0</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G100" s="3">
+      <c r="D100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E100" s="3">
+        <v>25100</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>4</v>
+      <c r="J100" s="3">
+        <v>0</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>4</v>
@@ -3373,8 +3864,14 @@
       <c r="L100" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3405,36 +3902,48 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E102" s="3">
+        <v>24500</v>
+      </c>
+      <c r="F102" s="3">
         <v>-1000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-600</v>
-      </c>
-      <c r="F102" s="3">
-        <v>-700</v>
-      </c>
-      <c r="G102" s="3">
-        <v>-800</v>
       </c>
       <c r="H102" s="3">
         <v>-700</v>
       </c>
       <c r="I102" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="J102" s="3">
         <v>-700</v>
       </c>
       <c r="K102" s="3">
+        <v>-700</v>
+      </c>
+      <c r="L102" s="3">
+        <v>-700</v>
+      </c>
+      <c r="M102" s="3">
         <v>4600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-1500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/REEMF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/REEMF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
   <si>
     <t>REEMF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,66 +665,70 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -761,8 +765,11 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -799,8 +806,11 @@
       <c r="N9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -837,8 +847,11 @@
       <c r="N10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -853,46 +866,50 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>900</v>
+      </c>
+      <c r="E12" s="3">
         <v>600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>800</v>
-      </c>
-      <c r="F12" s="3">
-        <v>400</v>
       </c>
       <c r="G12" s="3">
         <v>400</v>
       </c>
       <c r="H12" s="3">
+        <v>400</v>
+      </c>
+      <c r="I12" s="3">
         <v>500</v>
-      </c>
-      <c r="I12" s="3">
-        <v>400</v>
       </c>
       <c r="J12" s="3">
         <v>400</v>
       </c>
       <c r="K12" s="3">
+        <v>400</v>
+      </c>
+      <c r="L12" s="3">
         <v>300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -929,19 +946,22 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>4</v>
@@ -955,8 +975,8 @@
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -967,8 +987,11 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1005,8 +1028,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1018,46 +1044,50 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E17" s="3">
         <v>2100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1800</v>
-      </c>
-      <c r="F17" s="3">
-        <v>1200</v>
       </c>
       <c r="G17" s="3">
         <v>1200</v>
       </c>
       <c r="H17" s="3">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="I17" s="3">
         <v>1000</v>
       </c>
       <c r="J17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K17" s="3">
         <v>800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1065,37 +1095,40 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1800</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-1200</v>
       </c>
       <c r="G18" s="3">
         <v>-1200</v>
       </c>
       <c r="H18" s="3">
-        <v>-1000</v>
+        <v>-1200</v>
       </c>
       <c r="I18" s="3">
         <v>-1000</v>
       </c>
       <c r="J18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="K18" s="3">
         <v>-800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1110,8 +1143,9 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1122,7 +1156,7 @@
         <v>-100</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
@@ -1143,13 +1177,16 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1157,37 +1194,40 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>-1800</v>
+        <v>-2200</v>
       </c>
       <c r="F21" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="G21" s="3">
         <v>-1200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1300</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-1000</v>
       </c>
       <c r="I21" s="3">
         <v>-1000</v>
       </c>
       <c r="J21" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="K21" s="3">
         <v>-900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1224,46 +1264,52 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>4</v>
+      <c r="D23" s="3">
+        <v>-2600</v>
       </c>
       <c r="E23" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1300</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-1000</v>
       </c>
       <c r="I23" s="3">
         <v>-1000</v>
       </c>
       <c r="J23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="K23" s="3">
         <v>-900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1300,8 +1346,11 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1338,84 +1387,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>-2600</v>
       </c>
       <c r="E26" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1300</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-1000</v>
       </c>
       <c r="I26" s="3">
         <v>-1000</v>
       </c>
       <c r="J26" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="K26" s="3">
         <v>-900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>-2600</v>
       </c>
       <c r="E27" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1300</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-1000</v>
       </c>
       <c r="I27" s="3">
         <v>-1000</v>
       </c>
       <c r="J27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="K27" s="3">
         <v>-900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1452,8 +1510,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1490,8 +1551,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1528,8 +1592,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1566,8 +1633,11 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1578,7 +1648,7 @@
         <v>100</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
@@ -1599,51 +1669,57 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>-2600</v>
       </c>
       <c r="E33" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1300</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-1000</v>
       </c>
       <c r="I33" s="3">
         <v>-1000</v>
       </c>
       <c r="J33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="K33" s="3">
         <v>-900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1680,89 +1756,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>-2600</v>
       </c>
       <c r="E35" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1300</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-1000</v>
       </c>
       <c r="I35" s="3">
         <v>-1000</v>
       </c>
       <c r="J35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="K35" s="3">
         <v>-900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1777,8 +1862,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1793,46 +1879,50 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E41" s="3">
         <v>21500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>22200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1869,20 +1959,23 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>100</v>
+      </c>
+      <c r="E43" s="3">
         <v>300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>100</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G43" s="3" t="s">
         <v>4</v>
       </c>
@@ -1895,8 +1988,8 @@
       <c r="J43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
+      <c r="K43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
@@ -1907,8 +2000,11 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1945,84 +2041,93 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E45" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F45" s="3">
         <v>2800</v>
-      </c>
-      <c r="F45" s="3">
-        <v>100</v>
       </c>
       <c r="G45" s="3">
         <v>100</v>
       </c>
       <c r="H45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I45" s="3">
         <v>0</v>
       </c>
       <c r="J45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K45" s="3">
         <v>100</v>
       </c>
       <c r="L45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
       </c>
       <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>21800</v>
+      </c>
+      <c r="E46" s="3">
         <v>23100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>25100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2059,13 +2164,16 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="E48" s="3">
         <v>1000</v>
@@ -2074,10 +2182,10 @@
         <v>1000</v>
       </c>
       <c r="G48" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H48" s="3">
         <v>600</v>
-      </c>
-      <c r="H48" s="3">
-        <v>700</v>
       </c>
       <c r="I48" s="3">
         <v>700</v>
@@ -2097,8 +2205,11 @@
       <c r="N48" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2135,8 +2246,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2173,8 +2287,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2211,8 +2328,11 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2249,8 +2369,11 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2287,46 +2410,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>22700</v>
+      </c>
+      <c r="E54" s="3">
         <v>24100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>26100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2341,8 +2470,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2357,28 +2487,29 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>500</v>
+      </c>
+      <c r="E57" s="3">
         <v>300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>400</v>
-      </c>
-      <c r="I57" s="3">
-        <v>100</v>
       </c>
       <c r="J57" s="3">
         <v>100</v>
@@ -2387,16 +2518,19 @@
         <v>100</v>
       </c>
       <c r="L57" s="3">
+        <v>100</v>
+      </c>
+      <c r="M57" s="3">
         <v>200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2433,8 +2567,11 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2442,14 +2579,14 @@
         <v>100</v>
       </c>
       <c r="E59" s="3">
+        <v>100</v>
+      </c>
+      <c r="F59" s="3">
         <v>800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>100</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>4</v>
       </c>
@@ -2465,34 +2602,37 @@
       <c r="L59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M59" s="3">
-        <v>0</v>
+      <c r="M59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>600</v>
+      </c>
+      <c r="E60" s="3">
         <v>400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>400</v>
-      </c>
-      <c r="I60" s="3">
-        <v>100</v>
       </c>
       <c r="J60" s="3">
         <v>100</v>
@@ -2501,16 +2641,19 @@
         <v>100</v>
       </c>
       <c r="L60" s="3">
+        <v>100</v>
+      </c>
+      <c r="M60" s="3">
         <v>200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2547,8 +2690,11 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2556,13 +2702,13 @@
         <v>1500</v>
       </c>
       <c r="E62" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="F62" s="3">
         <v>1400</v>
       </c>
       <c r="G62" s="3">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="H62" s="3">
         <v>1100</v>
@@ -2571,10 +2717,10 @@
         <v>1100</v>
       </c>
       <c r="J62" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K62" s="3">
         <v>1000</v>
-      </c>
-      <c r="K62" s="3">
-        <v>700</v>
       </c>
       <c r="L62" s="3">
         <v>700</v>
@@ -2583,10 +2729,13 @@
         <v>700</v>
       </c>
       <c r="N62" s="3">
+        <v>700</v>
+      </c>
+      <c r="O62" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2623,8 +2772,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2661,8 +2813,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2699,46 +2854,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E66" s="3">
         <v>1900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1500</v>
-      </c>
-      <c r="I66" s="3">
-        <v>1200</v>
       </c>
       <c r="J66" s="3">
         <v>1200</v>
       </c>
       <c r="K66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L66" s="3">
         <v>800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2753,8 +2914,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2791,8 +2953,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2829,8 +2994,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2867,8 +3035,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2905,46 +3076,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-144000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-141400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-139200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-137400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-136100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-134900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-133800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-133400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-132200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-131500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-130900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-130600</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2981,8 +3158,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3019,8 +3199,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3057,46 +3240,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>20600</v>
+      </c>
+      <c r="E76" s="3">
         <v>22200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>23400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>5200</v>
       </c>
-      <c r="N76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3133,89 +3322,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>-2600</v>
       </c>
       <c r="E81" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1300</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-1000</v>
       </c>
       <c r="I81" s="3">
         <v>-1000</v>
       </c>
       <c r="J81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="K81" s="3">
         <v>-900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3230,8 +3428,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3268,8 +3467,11 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3306,8 +3508,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3344,8 +3549,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3382,8 +3590,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3420,8 +3631,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3458,46 +3672,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3500</v>
+        <v>-500</v>
       </c>
       <c r="E89" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="F89" s="3">
         <v>-600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3512,8 +3732,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3550,8 +3771,11 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3588,8 +3812,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3626,8 +3853,11 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3664,8 +3894,11 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3680,8 +3913,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3718,8 +3952,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3756,8 +3993,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3794,8 +4034,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3832,34 +4075,37 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E100" s="3">
+      <c r="E100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F100" s="3">
         <v>25100</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>4</v>
+      <c r="G100" s="3">
+        <v>0</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I100" s="3">
+      <c r="I100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>4</v>
+      <c r="K100" s="3">
+        <v>0</v>
       </c>
       <c r="L100" s="3" t="s">
         <v>4</v>
@@ -3870,8 +4116,11 @@
       <c r="N100" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3908,31 +4157,34 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-3500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>24500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-800</v>
-      </c>
-      <c r="J102" s="3">
-        <v>-700</v>
       </c>
       <c r="K102" s="3">
         <v>-700</v>
@@ -3941,9 +4193,12 @@
         <v>-700</v>
       </c>
       <c r="M102" s="3">
+        <v>-700</v>
+      </c>
+      <c r="N102" s="3">
         <v>4600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/REEMF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/REEMF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="92">
   <si>
     <t>REEMF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,70 +665,74 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -768,8 +772,11 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -809,8 +816,11 @@
       <c r="O9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -850,8 +860,11 @@
       <c r="O10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -867,49 +880,53 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>800</v>
+      </c>
+      <c r="E12" s="3">
         <v>900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>800</v>
-      </c>
-      <c r="G12" s="3">
-        <v>400</v>
       </c>
       <c r="H12" s="3">
         <v>400</v>
       </c>
       <c r="I12" s="3">
+        <v>400</v>
+      </c>
+      <c r="J12" s="3">
         <v>500</v>
-      </c>
-      <c r="J12" s="3">
-        <v>400</v>
       </c>
       <c r="K12" s="3">
         <v>400</v>
       </c>
       <c r="L12" s="3">
+        <v>400</v>
+      </c>
+      <c r="M12" s="3">
         <v>300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -949,8 +966,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -960,11 +980,11 @@
       <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
@@ -978,8 +998,8 @@
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -990,8 +1010,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1031,8 +1054,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,49 +1071,53 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E17" s="3">
         <v>2600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1800</v>
-      </c>
-      <c r="G17" s="3">
-        <v>1200</v>
       </c>
       <c r="H17" s="3">
         <v>1200</v>
       </c>
       <c r="I17" s="3">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="J17" s="3">
         <v>1000</v>
       </c>
       <c r="K17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L17" s="3">
         <v>800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1095,40 +1125,43 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F18" s="3">
         <v>-2100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1800</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-1200</v>
       </c>
       <c r="H18" s="3">
         <v>-1200</v>
       </c>
       <c r="I18" s="3">
-        <v>-1000</v>
+        <v>-1200</v>
       </c>
       <c r="J18" s="3">
         <v>-1000</v>
       </c>
       <c r="K18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="L18" s="3">
         <v>-800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,8 +1177,9 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1159,7 +1193,7 @@
         <v>-100</v>
       </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
@@ -1180,13 +1214,16 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1194,40 +1231,43 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F21" s="3">
         <v>-2200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1300</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-1000</v>
       </c>
       <c r="J21" s="3">
         <v>-1000</v>
       </c>
       <c r="K21" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="L21" s="3">
         <v>-900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1267,49 +1307,55 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1300</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-1000</v>
       </c>
       <c r="J23" s="3">
         <v>-1000</v>
       </c>
       <c r="K23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="L23" s="3">
         <v>-900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1349,8 +1395,11 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,90 +1439,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1300</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-1000</v>
       </c>
       <c r="J26" s="3">
         <v>-1000</v>
       </c>
       <c r="K26" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="L26" s="3">
         <v>-900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1300</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-1000</v>
       </c>
       <c r="J27" s="3">
         <v>-1000</v>
       </c>
       <c r="K27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="L27" s="3">
         <v>-900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,8 +1571,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1554,8 +1615,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,8 +1703,11 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1651,7 +1721,7 @@
         <v>100</v>
       </c>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
@@ -1672,54 +1742,60 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1300</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-1000</v>
       </c>
       <c r="J33" s="3">
         <v>-1000</v>
       </c>
       <c r="K33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="L33" s="3">
         <v>-900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,95 +1835,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1300</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-1000</v>
       </c>
       <c r="J35" s="3">
         <v>-1000</v>
       </c>
       <c r="K35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="L35" s="3">
         <v>-900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,49 +1966,53 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>18800</v>
+      </c>
+      <c r="E41" s="3">
         <v>21000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>21500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>22200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>5700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1962,8 +2052,11 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1971,14 +2064,14 @@
         <v>100</v>
       </c>
       <c r="E43" s="3">
+        <v>100</v>
+      </c>
+      <c r="F43" s="3">
         <v>300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>100</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>4</v>
       </c>
@@ -1991,8 +2084,8 @@
       <c r="K43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
+      <c r="L43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M43" s="3">
         <v>0</v>
@@ -2003,8 +2096,11 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2044,90 +2140,99 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E45" s="3">
         <v>700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2800</v>
-      </c>
-      <c r="G45" s="3">
-        <v>100</v>
       </c>
       <c r="H45" s="3">
         <v>100</v>
       </c>
       <c r="I45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J45" s="3">
         <v>0</v>
       </c>
       <c r="K45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L45" s="3">
         <v>100</v>
       </c>
       <c r="M45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
       </c>
       <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>20600</v>
+      </c>
+      <c r="E46" s="3">
         <v>21800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>23100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>25100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2167,8 +2272,11 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2176,7 +2284,7 @@
         <v>900</v>
       </c>
       <c r="E48" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="F48" s="3">
         <v>1000</v>
@@ -2185,10 +2293,10 @@
         <v>1000</v>
       </c>
       <c r="H48" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I48" s="3">
         <v>600</v>
-      </c>
-      <c r="I48" s="3">
-        <v>700</v>
       </c>
       <c r="J48" s="3">
         <v>700</v>
@@ -2208,8 +2316,11 @@
       <c r="O48" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2249,8 +2360,11 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,8 +2448,11 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2372,8 +2492,11 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,49 +2536,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>21500</v>
+      </c>
+      <c r="E54" s="3">
         <v>22700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>24100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>26100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,8 +2618,9 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2497,22 +2628,22 @@
         <v>500</v>
       </c>
       <c r="E57" s="3">
+        <v>500</v>
+      </c>
+      <c r="F57" s="3">
         <v>300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>400</v>
-      </c>
-      <c r="J57" s="3">
-        <v>100</v>
       </c>
       <c r="K57" s="3">
         <v>100</v>
@@ -2521,16 +2652,19 @@
         <v>100</v>
       </c>
       <c r="M57" s="3">
+        <v>100</v>
+      </c>
+      <c r="N57" s="3">
         <v>200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2570,8 +2704,11 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2582,14 +2719,14 @@
         <v>100</v>
       </c>
       <c r="F59" s="3">
+        <v>100</v>
+      </c>
+      <c r="G59" s="3">
         <v>800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>100</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>4</v>
       </c>
@@ -2605,14 +2742,17 @@
       <c r="M59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N59" s="3">
-        <v>0</v>
+      <c r="N59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2620,22 +2760,22 @@
         <v>600</v>
       </c>
       <c r="E60" s="3">
+        <v>600</v>
+      </c>
+      <c r="F60" s="3">
         <v>400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>400</v>
-      </c>
-      <c r="J60" s="3">
-        <v>100</v>
       </c>
       <c r="K60" s="3">
         <v>100</v>
@@ -2644,16 +2784,19 @@
         <v>100</v>
       </c>
       <c r="M60" s="3">
+        <v>100</v>
+      </c>
+      <c r="N60" s="3">
         <v>200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2693,25 +2836,28 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="E62" s="3">
         <v>1500</v>
       </c>
       <c r="F62" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="G62" s="3">
         <v>1400</v>
       </c>
       <c r="H62" s="3">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="I62" s="3">
         <v>1100</v>
@@ -2720,10 +2866,10 @@
         <v>1100</v>
       </c>
       <c r="K62" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L62" s="3">
         <v>1000</v>
-      </c>
-      <c r="L62" s="3">
-        <v>700</v>
       </c>
       <c r="M62" s="3">
         <v>700</v>
@@ -2732,10 +2878,13 @@
         <v>700</v>
       </c>
       <c r="O62" s="3">
+        <v>700</v>
+      </c>
+      <c r="P62" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,8 +3012,11 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2866,40 +3024,43 @@
         <v>2100</v>
       </c>
       <c r="E66" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F66" s="3">
         <v>1900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1500</v>
-      </c>
-      <c r="J66" s="3">
-        <v>1200</v>
       </c>
       <c r="K66" s="3">
         <v>1200</v>
       </c>
       <c r="L66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M66" s="3">
         <v>800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3038,8 +3206,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,49 +3250,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-145700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-144000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-141400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-139200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-137400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-136100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-134900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-133800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-133400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-132200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-131500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-130900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-130600</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,49 +3426,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>19400</v>
+      </c>
+      <c r="E76" s="3">
         <v>20600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>22200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>23400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>5200</v>
       </c>
-      <c r="O76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,95 +3514,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1300</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-1000</v>
       </c>
       <c r="J81" s="3">
         <v>-1000</v>
       </c>
       <c r="K81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="L81" s="3">
         <v>-900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,8 +3627,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3470,8 +3669,11 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,49 +3889,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-3500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,8 +3953,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3774,8 +3995,11 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,8 +4083,11 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3897,8 +4127,11 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,8 +4147,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3955,8 +4189,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,37 +4321,40 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>4</v>
+      <c r="D100" s="3">
+        <v>0</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F100" s="3">
+      <c r="F100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G100" s="3">
         <v>25100</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>4</v>
+      <c r="H100" s="3">
+        <v>0</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J100" s="3">
+      <c r="J100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>4</v>
+      <c r="L100" s="3">
+        <v>0</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>4</v>
@@ -4119,8 +4365,11 @@
       <c r="O100" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4160,34 +4409,37 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-3500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>24500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-800</v>
-      </c>
-      <c r="K102" s="3">
-        <v>-700</v>
       </c>
       <c r="L102" s="3">
         <v>-700</v>
@@ -4196,9 +4448,12 @@
         <v>-700</v>
       </c>
       <c r="N102" s="3">
+        <v>-700</v>
+      </c>
+      <c r="O102" s="3">
         <v>4600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/REEMF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/REEMF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="92">
   <si>
     <t>REEMF</t>
   </si>
@@ -1315,8 +1315,8 @@
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>4</v>
+      <c r="D23" s="3">
+        <v>-1700</v>
       </c>
       <c r="E23" s="3">
         <v>-2600</v>
@@ -1447,8 +1447,8 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>-1700</v>
       </c>
       <c r="E26" s="3">
         <v>-2600</v>
@@ -1491,8 +1491,8 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>-1700</v>
       </c>
       <c r="E27" s="3">
         <v>-2600</v>
@@ -1755,8 +1755,8 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>-1700</v>
       </c>
       <c r="E33" s="3">
         <v>-2600</v>
@@ -1843,8 +1843,8 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>-1700</v>
       </c>
       <c r="E35" s="3">
         <v>-2600</v>
@@ -3571,8 +3571,8 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>-1700</v>
       </c>
       <c r="E81" s="3">
         <v>-2600</v>
@@ -4418,7 +4418,7 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>10100</v>
+        <v>-2200</v>
       </c>
       <c r="E102" s="3">
         <v>-500</v>

--- a/AAII_Financials/Quarterly/REEMF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/REEMF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="92">
   <si>
     <t>REEMF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,74 +665,81 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -775,8 +782,14 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -819,8 +832,14 @@
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -863,8 +882,14 @@
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,52 +906,60 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F12" s="3">
         <v>800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>400</v>
-      </c>
-      <c r="I12" s="3">
-        <v>400</v>
-      </c>
-      <c r="J12" s="3">
-        <v>500</v>
       </c>
       <c r="K12" s="3">
         <v>400</v>
       </c>
       <c r="L12" s="3">
+        <v>500</v>
+      </c>
+      <c r="M12" s="3">
         <v>400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
+        <v>400</v>
+      </c>
+      <c r="O12" s="3">
         <v>300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,28 +1002,34 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>4</v>
@@ -1001,11 +1040,11 @@
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1013,16 +1052,22 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
         <v>0</v>
       </c>
-      <c r="E15" s="3">
-        <v>0</v>
+      <c r="E15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F15" s="3">
         <v>0</v>
@@ -1057,8 +1102,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,52 +1123,60 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F17" s="3">
         <v>1700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>2600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>2100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1125,43 +1184,49 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="G18" s="3">
         <v>-2600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-2100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-1800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-1200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-1200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-1000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-1000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1243,10 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1187,19 +1254,19 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G20" s="3">
         <v>-100</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J20" s="3">
         <v>0</v>
@@ -1217,13 +1284,19 @@
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1231,43 +1304,49 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="G21" s="3">
         <v>-2600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-2200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-1900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-1200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-1300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-1000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-1000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1277,20 +1356,20 @@
       <c r="E22" s="3">
         <v>0</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+      <c r="F22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1310,52 +1389,64 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-2600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-2200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-1900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-1200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-1300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-1000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-1000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,8 +1489,14 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1539,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-2600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-2200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-1900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-1200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-1300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-1000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-1000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-2600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-2200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-1900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-1200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-1300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-1000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-1000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1689,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1739,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1839,14 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1715,19 +1854,19 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="F32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G32" s="3">
         <v>100</v>
       </c>
       <c r="H32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J32" s="3">
         <v>0</v>
@@ -1745,57 +1884,69 @@
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-2600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-2200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-1900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-1200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-1300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-1000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-1000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1989,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-2600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-2200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-1900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-1200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-1300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-1000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-1000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2138,60 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>15500</v>
+      </c>
+      <c r="F41" s="3">
         <v>18800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>21000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>21500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>22200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>1400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>2000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>2700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>3500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>4200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>4900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>5700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,8 +2234,14 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2064,19 +2249,19 @@
         <v>100</v>
       </c>
       <c r="E43" s="3">
+        <v>200</v>
+      </c>
+      <c r="F43" s="3">
         <v>100</v>
-      </c>
-      <c r="F43" s="3">
-        <v>300</v>
       </c>
       <c r="G43" s="3">
         <v>100</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>4</v>
+      <c r="H43" s="3">
+        <v>300</v>
+      </c>
+      <c r="I43" s="3">
+        <v>100</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>4</v>
@@ -2087,11 +2272,11 @@
       <c r="L43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
-      </c>
-      <c r="N43" s="3">
-        <v>0</v>
+      <c r="M43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
@@ -2099,8 +2284,14 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,96 +2334,114 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F45" s="3">
         <v>1700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>1300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>2800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>100</v>
       </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
       <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
         <v>100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>100</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
-      </c>
-      <c r="O45" s="3">
-        <v>0</v>
-      </c>
       <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>16100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>18000</v>
+      </c>
+      <c r="F46" s="3">
         <v>20600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>21800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>23100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>25100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>2100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>2800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>3600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>4300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>4900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>5700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,8 +2484,14 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2287,22 +2502,22 @@
         <v>900</v>
       </c>
       <c r="F48" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="G48" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="H48" s="3">
         <v>1000</v>
       </c>
       <c r="I48" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J48" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K48" s="3">
         <v>600</v>
-      </c>
-      <c r="J48" s="3">
-        <v>700</v>
-      </c>
-      <c r="K48" s="3">
-        <v>700</v>
       </c>
       <c r="L48" s="3">
         <v>700</v>
@@ -2319,8 +2534,14 @@
       <c r="P48" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>700</v>
+      </c>
+      <c r="R48" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2584,14 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2684,14 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2495,8 +2734,14 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2784,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>18900</v>
+      </c>
+      <c r="F54" s="3">
         <v>21500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>22700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>24100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>26100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>2200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>2700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>3400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>4200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>4900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>5600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>6400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,52 +2878,60 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>300</v>
+      </c>
+      <c r="E57" s="3">
+        <v>200</v>
+      </c>
+      <c r="F57" s="3">
         <v>500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>500</v>
-      </c>
-      <c r="F57" s="3">
-        <v>300</v>
-      </c>
-      <c r="G57" s="3">
-        <v>400</v>
       </c>
       <c r="H57" s="3">
         <v>300</v>
       </c>
       <c r="I57" s="3">
+        <v>400</v>
+      </c>
+      <c r="J57" s="3">
+        <v>300</v>
+      </c>
+      <c r="K57" s="3">
         <v>600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>400</v>
-      </c>
-      <c r="K57" s="3">
-        <v>100</v>
-      </c>
-      <c r="L57" s="3">
-        <v>100</v>
       </c>
       <c r="M57" s="3">
         <v>100</v>
       </c>
       <c r="N57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O57" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="P57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>500</v>
+      </c>
+      <c r="R57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2707,8 +2974,14 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2722,16 +2995,16 @@
         <v>100</v>
       </c>
       <c r="G59" s="3">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="H59" s="3">
         <v>100</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>4</v>
+      <c r="I59" s="3">
+        <v>800</v>
+      </c>
+      <c r="J59" s="3">
+        <v>100</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>4</v>
@@ -2745,58 +3018,70 @@
       <c r="N59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O59" s="3">
-        <v>0</v>
-      </c>
-      <c r="P59" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>400</v>
+      </c>
+      <c r="F60" s="3">
         <v>600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>400</v>
-      </c>
-      <c r="K60" s="3">
-        <v>100</v>
-      </c>
-      <c r="L60" s="3">
-        <v>100</v>
       </c>
       <c r="M60" s="3">
         <v>100</v>
       </c>
       <c r="N60" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O60" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="P60" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>500</v>
+      </c>
+      <c r="R60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2839,8 +3124,14 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2848,43 +3139,49 @@
         <v>1600</v>
       </c>
       <c r="E62" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F62" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G62" s="3">
         <v>1500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>1500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>1400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>1400</v>
-      </c>
-      <c r="I62" s="3">
-        <v>1100</v>
-      </c>
-      <c r="J62" s="3">
-        <v>1100</v>
       </c>
       <c r="K62" s="3">
         <v>1100</v>
       </c>
       <c r="L62" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M62" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N62" s="3">
         <v>1000</v>
-      </c>
-      <c r="M62" s="3">
-        <v>700</v>
-      </c>
-      <c r="N62" s="3">
-        <v>700</v>
       </c>
       <c r="O62" s="3">
         <v>700</v>
       </c>
       <c r="P62" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>700</v>
+      </c>
+      <c r="R62" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,8 +3324,14 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3024,43 +3339,49 @@
         <v>2100</v>
       </c>
       <c r="E66" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F66" s="3">
         <v>2100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
+        <v>2100</v>
+      </c>
+      <c r="H66" s="3">
         <v>1900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>2700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3594,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-150900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-148600</v>
+      </c>
+      <c r="F72" s="3">
         <v>-145700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-144000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-141400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-139200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-137400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-136100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-134900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-133800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-133400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-132200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-131500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-130900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-130600</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3794,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>16900</v>
+      </c>
+      <c r="F76" s="3">
         <v>19400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>20600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>22200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>23400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>2200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>3000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>4100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>4600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>5200</v>
       </c>
-      <c r="P76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3894,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-2600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-2200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-1900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-1200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-1300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-1000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-1000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +4023,10 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3672,8 +4069,14 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,34 +4319,40 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="F89" s="3">
         <v>-2200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-3500</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-600</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-1000</v>
       </c>
       <c r="I89" s="3">
         <v>-600</v>
       </c>
       <c r="J89" s="3">
-        <v>-700</v>
+        <v>-1000</v>
       </c>
       <c r="K89" s="3">
-        <v>-800</v>
+        <v>-600</v>
       </c>
       <c r="L89" s="3">
         <v>-700</v>
@@ -3931,13 +4364,19 @@
         <v>-700</v>
       </c>
       <c r="O89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="P89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4393,10 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3998,8 +4439,14 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,31 +4539,37 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
         <v>0</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
+      <c r="E94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -4130,8 +4589,14 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4613,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4659,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,43 +4809,49 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>0</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G100" s="3">
+      <c r="D100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I100" s="3">
         <v>25100</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N100" s="3" t="s">
-        <v>4</v>
+      <c r="N100" s="3">
+        <v>0</v>
       </c>
       <c r="O100" s="3" t="s">
         <v>4</v>
@@ -4368,8 +4859,14 @@
       <c r="P100" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,48 +4909,60 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="F102" s="3">
         <v>-2200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-3500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>24500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-1000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-600</v>
-      </c>
-      <c r="J102" s="3">
-        <v>-700</v>
-      </c>
-      <c r="K102" s="3">
-        <v>-800</v>
       </c>
       <c r="L102" s="3">
         <v>-700</v>
       </c>
       <c r="M102" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="N102" s="3">
         <v>-700</v>
       </c>
       <c r="O102" s="3">
+        <v>-700</v>
+      </c>
+      <c r="P102" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Q102" s="3">
         <v>4600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-1500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/REEMF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/REEMF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="92">
   <si>
     <t>REEMF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,81 +665,85 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -788,8 +792,11 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -838,8 +845,11 @@
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -888,8 +898,11 @@
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,58 +921,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E12" s="3">
         <v>1500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>800</v>
-      </c>
-      <c r="J12" s="3">
-        <v>400</v>
       </c>
       <c r="K12" s="3">
         <v>400</v>
       </c>
       <c r="L12" s="3">
+        <v>400</v>
+      </c>
+      <c r="M12" s="3">
         <v>500</v>
-      </c>
-      <c r="M12" s="3">
-        <v>400</v>
       </c>
       <c r="N12" s="3">
         <v>400</v>
       </c>
       <c r="O12" s="3">
+        <v>400</v>
+      </c>
+      <c r="P12" s="3">
         <v>300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,19 +1025,22 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>4</v>
@@ -1028,11 +1048,11 @@
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>4</v>
@@ -1046,8 +1066,8 @@
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1058,19 +1078,22 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
         <v>0</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G15" s="3">
         <v>0</v>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,58 +1151,62 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E17" s="3">
         <v>2300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1800</v>
-      </c>
-      <c r="J17" s="3">
-        <v>1200</v>
       </c>
       <c r="K17" s="3">
         <v>1200</v>
       </c>
       <c r="L17" s="3">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="M17" s="3">
         <v>1000</v>
       </c>
       <c r="N17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O17" s="3">
         <v>800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1184,49 +1214,52 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-2900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-2100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1800</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-1200</v>
       </c>
       <c r="K18" s="3">
         <v>-1200</v>
       </c>
       <c r="L18" s="3">
-        <v>-1000</v>
+        <v>-1200</v>
       </c>
       <c r="M18" s="3">
         <v>-1000</v>
       </c>
       <c r="N18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="O18" s="3">
         <v>-800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,8 +1278,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1257,10 +1291,10 @@
         <v>100</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H20" s="3">
         <v>-100</v>
@@ -1269,7 +1303,7 @@
         <v>-100</v>
       </c>
       <c r="J20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
@@ -1290,13 +1324,16 @@
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1304,49 +1341,52 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="F21" s="3">
         <v>-2900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-2600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-2200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1300</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-1000</v>
       </c>
       <c r="M21" s="3">
         <v>-1000</v>
       </c>
       <c r="N21" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="O21" s="3">
         <v>-900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1356,8 +1396,8 @@
       <c r="E22" s="3">
         <v>0</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>4</v>
+      <c r="F22" s="3">
+        <v>0</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>4</v>
@@ -1371,8 +1411,8 @@
       <c r="J22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1395,58 +1435,64 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1300</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-1000</v>
       </c>
       <c r="M23" s="3">
         <v>-1000</v>
       </c>
       <c r="N23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="O23" s="3">
         <v>-900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1495,8 +1541,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1300</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-1000</v>
       </c>
       <c r="M26" s="3">
         <v>-1000</v>
       </c>
       <c r="N26" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="O26" s="3">
         <v>-900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1300</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-1000</v>
       </c>
       <c r="M27" s="3">
         <v>-1000</v>
       </c>
       <c r="N27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="O27" s="3">
         <v>-900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,8 +1912,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1857,10 +1927,10 @@
         <v>-100</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H32" s="3">
         <v>100</v>
@@ -1869,7 +1939,7 @@
         <v>100</v>
       </c>
       <c r="J32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
@@ -1890,63 +1960,69 @@
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1300</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-1000</v>
       </c>
       <c r="M33" s="3">
         <v>-1000</v>
       </c>
       <c r="N33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="O33" s="3">
         <v>-900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1300</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-1000</v>
       </c>
       <c r="M35" s="3">
         <v>-1000</v>
       </c>
       <c r="N35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="O35" s="3">
         <v>-900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,58 +2226,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E41" s="3">
         <v>14000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>15500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>18800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>21000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>21500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>22200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>5700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,32 +2330,35 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>300</v>
+      </c>
+      <c r="E43" s="3">
         <v>100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>200</v>
-      </c>
-      <c r="F43" s="3">
-        <v>100</v>
       </c>
       <c r="G43" s="3">
         <v>100</v>
       </c>
       <c r="H43" s="3">
+        <v>100</v>
+      </c>
+      <c r="I43" s="3">
         <v>300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>100</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2278,8 +2371,8 @@
       <c r="N43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
+      <c r="O43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P43" s="3">
         <v>0</v>
@@ -2290,8 +2383,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2340,108 +2436,117 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E45" s="3">
         <v>2000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2800</v>
-      </c>
-      <c r="J45" s="3">
-        <v>100</v>
       </c>
       <c r="K45" s="3">
         <v>100</v>
       </c>
       <c r="L45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
       </c>
       <c r="N45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O45" s="3">
         <v>100</v>
       </c>
       <c r="P45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q45" s="3">
         <v>0</v>
       </c>
       <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E46" s="3">
         <v>16100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>18000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>20600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>21800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>23100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>25100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>5700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2490,8 +2595,11 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2508,7 +2616,7 @@
         <v>900</v>
       </c>
       <c r="H48" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="I48" s="3">
         <v>1000</v>
@@ -2517,10 +2625,10 @@
         <v>1000</v>
       </c>
       <c r="K48" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L48" s="3">
         <v>600</v>
-      </c>
-      <c r="L48" s="3">
-        <v>700</v>
       </c>
       <c r="M48" s="3">
         <v>700</v>
@@ -2540,8 +2648,11 @@
       <c r="R48" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,8 +2807,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2740,8 +2860,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E54" s="3">
         <v>17000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>18900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>21500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>22700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>24100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>26100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>6400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,8 +3010,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2889,31 +3020,31 @@
         <v>300</v>
       </c>
       <c r="E57" s="3">
+        <v>300</v>
+      </c>
+      <c r="F57" s="3">
         <v>200</v>
-      </c>
-      <c r="F57" s="3">
-        <v>500</v>
       </c>
       <c r="G57" s="3">
         <v>500</v>
       </c>
       <c r="H57" s="3">
+        <v>500</v>
+      </c>
+      <c r="I57" s="3">
         <v>300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>400</v>
-      </c>
-      <c r="M57" s="3">
-        <v>100</v>
       </c>
       <c r="N57" s="3">
         <v>100</v>
@@ -2922,16 +3053,19 @@
         <v>100</v>
       </c>
       <c r="P57" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q57" s="3">
         <v>200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2980,8 +3114,11 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3001,14 +3138,14 @@
         <v>100</v>
       </c>
       <c r="I59" s="3">
+        <v>100</v>
+      </c>
+      <c r="J59" s="3">
         <v>800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>100</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>4</v>
       </c>
@@ -3024,46 +3161,49 @@
       <c r="P59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q59" s="3">
-        <v>0</v>
+      <c r="Q59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>400</v>
+      </c>
+      <c r="E60" s="3">
         <v>500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>400</v>
-      </c>
-      <c r="F60" s="3">
-        <v>600</v>
       </c>
       <c r="G60" s="3">
         <v>600</v>
       </c>
       <c r="H60" s="3">
+        <v>600</v>
+      </c>
+      <c r="I60" s="3">
         <v>400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>400</v>
-      </c>
-      <c r="M60" s="3">
-        <v>100</v>
       </c>
       <c r="N60" s="3">
         <v>100</v>
@@ -3072,16 +3212,19 @@
         <v>100</v>
       </c>
       <c r="P60" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q60" s="3">
         <v>200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3130,13 +3273,16 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="E62" s="3">
         <v>1600</v>
@@ -3145,19 +3291,19 @@
         <v>1600</v>
       </c>
       <c r="G62" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="H62" s="3">
         <v>1500</v>
       </c>
       <c r="I62" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="J62" s="3">
         <v>1400</v>
       </c>
       <c r="K62" s="3">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="L62" s="3">
         <v>1100</v>
@@ -3166,10 +3312,10 @@
         <v>1100</v>
       </c>
       <c r="N62" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O62" s="3">
         <v>1000</v>
-      </c>
-      <c r="O62" s="3">
-        <v>700</v>
       </c>
       <c r="P62" s="3">
         <v>700</v>
@@ -3178,10 +3324,13 @@
         <v>700</v>
       </c>
       <c r="R62" s="3">
+        <v>700</v>
+      </c>
+      <c r="S62" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,8 +3485,11 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3339,49 +3497,52 @@
         <v>2100</v>
       </c>
       <c r="E66" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F66" s="3">
         <v>1900</v>
-      </c>
-      <c r="F66" s="3">
-        <v>2100</v>
       </c>
       <c r="G66" s="3">
         <v>2100</v>
       </c>
       <c r="H66" s="3">
+        <v>2100</v>
+      </c>
+      <c r="I66" s="3">
         <v>1900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1500</v>
-      </c>
-      <c r="M66" s="3">
-        <v>1200</v>
       </c>
       <c r="N66" s="3">
         <v>1200</v>
       </c>
       <c r="O66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="P66" s="3">
         <v>800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-153600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-150900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-148600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-145700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-144000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-141400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-139200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-137400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-136100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-134900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-133800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-133400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-132200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-131500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-130900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-130600</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E76" s="3">
         <v>14900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>16900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>19400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>20600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>22200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>23400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>4100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>4600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>5200</v>
       </c>
-      <c r="R76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1300</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-1000</v>
       </c>
       <c r="M81" s="3">
         <v>-1000</v>
       </c>
       <c r="N81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="O81" s="3">
         <v>-900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4075,8 +4274,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-3300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-2200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-3500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,8 +4615,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4445,8 +4666,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,16 +4772,19 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
         <v>0</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>4</v>
+      <c r="E94" s="3">
+        <v>0</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>4</v>
@@ -4571,8 +4801,8 @@
       <c r="J94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
@@ -4595,8 +4825,11 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,46 +5058,49 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
+      <c r="E100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>4</v>
+      <c r="G100" s="3">
+        <v>0</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I100" s="3">
+      <c r="I100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J100" s="3">
         <v>25100</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>4</v>
+      <c r="K100" s="3">
+        <v>0</v>
       </c>
       <c r="L100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3" t="s">
-        <v>4</v>
+      <c r="O100" s="3">
+        <v>0</v>
       </c>
       <c r="P100" s="3" t="s">
         <v>4</v>
@@ -4865,8 +5111,11 @@
       <c r="R100" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,43 +5164,46 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-3300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-2200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-3500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>24500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-800</v>
-      </c>
-      <c r="N102" s="3">
-        <v>-700</v>
       </c>
       <c r="O102" s="3">
         <v>-700</v>
@@ -4960,9 +5212,12 @@
         <v>-700</v>
       </c>
       <c r="Q102" s="3">
+        <v>-700</v>
+      </c>
+      <c r="R102" s="3">
         <v>4600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/REEMF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/REEMF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="92">
   <si>
     <t>REEMF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,89 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -795,8 +799,11 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -848,8 +855,11 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -901,8 +911,11 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,61 +935,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E12" s="3">
         <v>2200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>800</v>
-      </c>
-      <c r="K12" s="3">
-        <v>400</v>
       </c>
       <c r="L12" s="3">
         <v>400</v>
       </c>
       <c r="M12" s="3">
+        <v>400</v>
+      </c>
+      <c r="N12" s="3">
         <v>500</v>
-      </c>
-      <c r="N12" s="3">
-        <v>400</v>
       </c>
       <c r="O12" s="3">
         <v>400</v>
       </c>
       <c r="P12" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q12" s="3">
         <v>300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>400</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1039,11 +1059,11 @@
       <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
@@ -1051,11 +1071,11 @@
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
@@ -1069,8 +1089,8 @@
       <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1092,11 +1115,11 @@
       <c r="E15" s="3">
         <v>0</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H15" s="3">
         <v>0</v>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,61 +1178,65 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E17" s="3">
         <v>2800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1800</v>
-      </c>
-      <c r="K17" s="3">
-        <v>1200</v>
       </c>
       <c r="L17" s="3">
         <v>1200</v>
       </c>
       <c r="M17" s="3">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="N17" s="3">
         <v>1000</v>
       </c>
       <c r="O17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P17" s="3">
         <v>800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1214,52 +1244,55 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F18" s="3">
         <v>-2300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-2600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-2100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1800</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-1200</v>
       </c>
       <c r="L18" s="3">
         <v>-1200</v>
       </c>
       <c r="M18" s="3">
-        <v>-1000</v>
+        <v>-1200</v>
       </c>
       <c r="N18" s="3">
         <v>-1000</v>
       </c>
       <c r="O18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="P18" s="3">
         <v>-800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1294,10 +1328,10 @@
         <v>100</v>
       </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I20" s="3">
         <v>-100</v>
@@ -1306,7 +1340,7 @@
         <v>-100</v>
       </c>
       <c r="K20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L20" s="3">
         <v>0</v>
@@ -1327,13 +1361,16 @@
         <v>0</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1341,52 +1378,55 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="F21" s="3">
         <v>-2200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-2900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-2600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-2200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1300</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-1000</v>
       </c>
       <c r="N21" s="3">
         <v>-1000</v>
       </c>
       <c r="O21" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="P21" s="3">
         <v>-900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1399,11 +1439,11 @@
       <c r="F22" s="3">
         <v>0</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>4</v>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>4</v>
@@ -1414,8 +1454,8 @@
       <c r="K22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="L22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1438,61 +1478,67 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1300</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-1000</v>
       </c>
       <c r="N23" s="3">
         <v>-1000</v>
       </c>
       <c r="O23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="P23" s="3">
         <v>-900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1300</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-1000</v>
       </c>
       <c r="N26" s="3">
         <v>-1000</v>
       </c>
       <c r="O26" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="P26" s="3">
         <v>-900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1300</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-1000</v>
       </c>
       <c r="N27" s="3">
         <v>-1000</v>
       </c>
       <c r="O27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="P27" s="3">
         <v>-900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1930,10 +2000,10 @@
         <v>-100</v>
       </c>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I32" s="3">
         <v>100</v>
@@ -1942,7 +2012,7 @@
         <v>100</v>
       </c>
       <c r="K32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L32" s="3">
         <v>0</v>
@@ -1963,66 +2033,72 @@
         <v>0</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>-500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1300</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-1000</v>
       </c>
       <c r="N33" s="3">
         <v>-1000</v>
       </c>
       <c r="O33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="P33" s="3">
         <v>-900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1300</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-1000</v>
       </c>
       <c r="N35" s="3">
         <v>-1000</v>
       </c>
       <c r="O35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="P35" s="3">
         <v>-900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,61 +2313,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E41" s="3">
         <v>11500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>14000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>15500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>18800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>21000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>21500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>22200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>5700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,35 +2423,38 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>400</v>
+      </c>
+      <c r="E43" s="3">
         <v>300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>200</v>
-      </c>
-      <c r="G43" s="3">
-        <v>100</v>
       </c>
       <c r="H43" s="3">
         <v>100</v>
       </c>
       <c r="I43" s="3">
+        <v>100</v>
+      </c>
+      <c r="J43" s="3">
         <v>300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>100</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2374,8 +2467,8 @@
       <c r="O43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P43" s="3">
-        <v>0</v>
+      <c r="P43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q43" s="3">
         <v>0</v>
@@ -2386,8 +2479,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,114 +2535,123 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E45" s="3">
         <v>1800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2800</v>
-      </c>
-      <c r="K45" s="3">
-        <v>100</v>
       </c>
       <c r="L45" s="3">
         <v>100</v>
       </c>
       <c r="M45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
       </c>
       <c r="O45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P45" s="3">
         <v>100</v>
       </c>
       <c r="Q45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R45" s="3">
         <v>0</v>
       </c>
       <c r="S45" s="3">
+        <v>0</v>
+      </c>
+      <c r="T45" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E46" s="3">
         <v>13500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>16100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>18000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>20600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>21800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>23100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>25100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>5700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,13 +2703,16 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="E48" s="3">
         <v>900</v>
@@ -2619,7 +2727,7 @@
         <v>900</v>
       </c>
       <c r="I48" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="J48" s="3">
         <v>1000</v>
@@ -2628,10 +2736,10 @@
         <v>1000</v>
       </c>
       <c r="L48" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M48" s="3">
         <v>600</v>
-      </c>
-      <c r="M48" s="3">
-        <v>700</v>
       </c>
       <c r="N48" s="3">
         <v>700</v>
@@ -2651,8 +2759,11 @@
       <c r="S48" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,31 +2927,34 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
-      </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E54" s="3">
         <v>14400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>17000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>18900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>21500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>22700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>24100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>26100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>5600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>6400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,43 +3141,44 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E57" s="3">
         <v>300</v>
       </c>
       <c r="F57" s="3">
+        <v>300</v>
+      </c>
+      <c r="G57" s="3">
         <v>200</v>
-      </c>
-      <c r="G57" s="3">
-        <v>500</v>
       </c>
       <c r="H57" s="3">
         <v>500</v>
       </c>
       <c r="I57" s="3">
+        <v>500</v>
+      </c>
+      <c r="J57" s="3">
         <v>300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>400</v>
-      </c>
-      <c r="N57" s="3">
-        <v>100</v>
       </c>
       <c r="O57" s="3">
         <v>100</v>
@@ -3056,16 +3187,19 @@
         <v>100</v>
       </c>
       <c r="Q57" s="3">
+        <v>100</v>
+      </c>
+      <c r="R57" s="3">
         <v>200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3117,8 +3251,11 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3141,14 +3278,14 @@
         <v>100</v>
       </c>
       <c r="J59" s="3">
+        <v>100</v>
+      </c>
+      <c r="K59" s="3">
         <v>800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>100</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>4</v>
       </c>
@@ -3164,49 +3301,52 @@
       <c r="Q59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R59" s="3">
-        <v>0</v>
+      <c r="R59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>300</v>
+      </c>
+      <c r="E60" s="3">
         <v>400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>400</v>
-      </c>
-      <c r="G60" s="3">
-        <v>600</v>
       </c>
       <c r="H60" s="3">
         <v>600</v>
       </c>
       <c r="I60" s="3">
+        <v>600</v>
+      </c>
+      <c r="J60" s="3">
         <v>400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>400</v>
-      </c>
-      <c r="N60" s="3">
-        <v>100</v>
       </c>
       <c r="O60" s="3">
         <v>100</v>
@@ -3215,16 +3355,19 @@
         <v>100</v>
       </c>
       <c r="Q60" s="3">
+        <v>100</v>
+      </c>
+      <c r="R60" s="3">
         <v>200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3276,16 +3419,19 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E62" s="3">
         <v>1700</v>
-      </c>
-      <c r="E62" s="3">
-        <v>1600</v>
       </c>
       <c r="F62" s="3">
         <v>1600</v>
@@ -3294,19 +3440,19 @@
         <v>1600</v>
       </c>
       <c r="H62" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="I62" s="3">
         <v>1500</v>
       </c>
       <c r="J62" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="K62" s="3">
         <v>1400</v>
       </c>
       <c r="L62" s="3">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="M62" s="3">
         <v>1100</v>
@@ -3315,10 +3461,10 @@
         <v>1100</v>
       </c>
       <c r="O62" s="3">
+        <v>1100</v>
+      </c>
+      <c r="P62" s="3">
         <v>1000</v>
-      </c>
-      <c r="P62" s="3">
-        <v>700</v>
       </c>
       <c r="Q62" s="3">
         <v>700</v>
@@ -3327,10 +3473,13 @@
         <v>700</v>
       </c>
       <c r="S62" s="3">
+        <v>700</v>
+      </c>
+      <c r="T62" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="E66" s="3">
         <v>2100</v>
       </c>
       <c r="F66" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G66" s="3">
         <v>1900</v>
-      </c>
-      <c r="G66" s="3">
-        <v>2100</v>
       </c>
       <c r="H66" s="3">
         <v>2100</v>
       </c>
       <c r="I66" s="3">
+        <v>2100</v>
+      </c>
+      <c r="J66" s="3">
         <v>1900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1500</v>
-      </c>
-      <c r="N66" s="3">
-        <v>1200</v>
       </c>
       <c r="O66" s="3">
         <v>1200</v>
       </c>
       <c r="P66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Q66" s="3">
         <v>800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-156700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-153600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-150900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-148600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-145700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-144000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-141400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-139200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-137400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-136100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-134900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-133800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-133400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-132200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-131500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-130900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-130600</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E76" s="3">
         <v>12300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>14900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>16900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>19400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>20600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>22200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>23400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>4100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>4600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>5200</v>
       </c>
-      <c r="S76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1300</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-1000</v>
       </c>
       <c r="N81" s="3">
         <v>-1000</v>
       </c>
       <c r="O81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="P81" s="3">
         <v>-900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-3300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-2200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-3500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4669,8 +4890,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5002,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4786,8 +5016,8 @@
       <c r="E94" s="3">
         <v>0</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>4</v>
+      <c r="F94" s="3">
+        <v>0</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>4</v>
@@ -4804,8 +5034,8 @@
       <c r="K94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
+      <c r="L94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
@@ -4828,8 +5058,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,49 +5304,52 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>4</v>
+      <c r="D100" s="3">
+        <v>0</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
+      <c r="F100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>4</v>
+      <c r="H100" s="3">
+        <v>0</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J100" s="3">
+      <c r="J100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K100" s="3">
         <v>25100</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>4</v>
+      <c r="L100" s="3">
+        <v>0</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N100" s="3">
+      <c r="N100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O100" s="3">
         <v>100</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3" t="s">
-        <v>4</v>
+      <c r="P100" s="3">
+        <v>0</v>
       </c>
       <c r="Q100" s="3" t="s">
         <v>4</v>
@@ -5114,8 +5360,11 @@
       <c r="S100" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,46 +5416,49 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-3300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-2200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-3500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>24500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-800</v>
-      </c>
-      <c r="O102" s="3">
-        <v>-700</v>
       </c>
       <c r="P102" s="3">
         <v>-700</v>
@@ -5215,9 +5467,12 @@
         <v>-700</v>
       </c>
       <c r="R102" s="3">
+        <v>-700</v>
+      </c>
+      <c r="S102" s="3">
         <v>4600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1500</v>
       </c>
     </row>
